--- a/Projects/STYR-N/RunDaisy/Treat4_S1_S3.xlsx
+++ b/Projects/STYR-N/RunDaisy/Treat4_S1_S3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="T4_S1_IND" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="27">
   <si>
     <t>action</t>
   </si>
@@ -848,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,81 +883,84 @@
         <v>9</v>
       </c>
       <c r="B2" s="42">
-        <v>34425</v>
+        <v>34444</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="114" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="63">
-        <v>34487</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="50"/>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="65">
+        <v>34444</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="66">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="100">
-        <v>34547</v>
-      </c>
-      <c r="C4" s="99" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="62"/>
+      <c r="B4" s="63">
+        <v>34487</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="50"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="101">
+      <c r="B5" s="100">
+        <v>34547</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="62"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="101">
         <v>34622</v>
       </c>
-      <c r="C5" s="99" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="62"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="65">
-        <v>34809</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="66">
-        <v>140</v>
-      </c>
+      <c r="C6" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="62"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="115" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B7" s="65">
+        <v>34809</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="66">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="65">
         <v>34852</v>
       </c>
-      <c r="C7" s="64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="114" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="100">
-        <v>34912</v>
-      </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="64" t="s">
         <v>5</v>
       </c>
     </row>
@@ -965,55 +968,54 @@
       <c r="A9" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="101">
+      <c r="B9" s="100">
+        <v>34912</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="101">
         <v>34987</v>
       </c>
-      <c r="C9" s="99" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="65">
-        <v>35178</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="66">
-        <v>60</v>
+      <c r="C10" s="99" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="115" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="65">
         <v>35178</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="G11" s="98"/>
+      <c r="C11" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="66">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="65">
-        <v>35180</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>18</v>
-      </c>
+        <v>35178</v>
+      </c>
+      <c r="C12" s="44"/>
       <c r="G12" s="98"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="115" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B13" s="65">
-        <v>35282</v>
+        <v>35180</v>
       </c>
       <c r="C13" s="64" t="s">
         <v>18</v>
@@ -1022,47 +1024,44 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="115" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B14" s="65">
-        <v>35334</v>
-      </c>
-      <c r="C14" s="44"/>
+        <v>35282</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>18</v>
+      </c>
       <c r="G14" s="98"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="65">
-        <v>35335</v>
-      </c>
-      <c r="C15" s="64" t="s">
-        <v>10</v>
-      </c>
+        <v>35334</v>
+      </c>
+      <c r="C15" s="44"/>
       <c r="G15" s="98"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="115" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B16" s="65">
-        <v>35550</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="66">
-        <v>85</v>
+        <v>35335</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>10</v>
       </c>
       <c r="G16" s="98"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="115" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="65">
-        <v>35563</v>
+        <v>35550</v>
       </c>
       <c r="C17" s="44" t="s">
         <v>7</v>
@@ -1070,174 +1069,178 @@
       <c r="D17" s="66">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G17" s="98"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="65">
+        <v>35563</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="66">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="65">
+      <c r="B19" s="65">
         <v>35662</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C19" s="64" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="115" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="115" t="s">
         <v>6</v>
-      </c>
-      <c r="B19" s="65">
-        <v>35906</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="66">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="115" t="s">
-        <v>8</v>
       </c>
       <c r="B20" s="65">
         <v>35906</v>
       </c>
-      <c r="C20" s="44"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="66">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="65">
+        <v>35906</v>
+      </c>
+      <c r="C21" s="44"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="65">
+      <c r="B22" s="65">
         <v>35909</v>
-      </c>
-      <c r="C21" s="64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="115" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="65">
-        <v>36102</v>
       </c>
       <c r="C22" s="64" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="65">
+        <v>36102</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="115" t="s">
         <v>6</v>
-      </c>
-      <c r="B23" s="68">
-        <v>36257</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="69">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="115" t="s">
-        <v>8</v>
       </c>
       <c r="B24" s="68">
         <v>36257</v>
       </c>
-      <c r="C24" s="44"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="68">
+        <v>36257</v>
+      </c>
+      <c r="C25" s="44"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="68">
+      <c r="B26" s="68">
         <v>36259</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C26" s="70" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="115" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="68">
+      <c r="B27" s="68">
         <v>36395</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C27" s="67" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="68">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="68">
         <v>36668</v>
       </c>
-      <c r="C27" s="67" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="114" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="100">
+      <c r="C28" s="67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="100">
         <v>36739</v>
       </c>
-      <c r="C28" s="99" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="114" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="101">
+      <c r="C29" s="99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="101">
         <v>36814</v>
       </c>
-      <c r="C29" s="99" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="115" t="s">
+      <c r="C30" s="99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="65">
+      <c r="B31" s="65">
         <v>36987</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C31" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="71">
+      <c r="D31" s="71">
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="68">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="68">
         <v>37050</v>
       </c>
-      <c r="C31" s="67" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="114" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="100">
-        <v>37104</v>
-      </c>
-      <c r="C32" s="99" t="s">
+      <c r="C32" s="67" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1245,103 +1248,102 @@
       <c r="A33" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="101">
+      <c r="B33" s="100">
+        <v>37104</v>
+      </c>
+      <c r="C33" s="99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="101">
         <v>37179</v>
       </c>
-      <c r="C33" s="99" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="116" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="53">
-        <v>37349</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="45">
-        <v>100</v>
+      <c r="C34" s="99" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="116" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B35" s="53">
         <v>37349</v>
       </c>
-      <c r="C35" s="44"/>
+      <c r="C35" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="45">
+        <v>100</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" s="53">
-        <v>37354</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>18</v>
-      </c>
+        <v>37349</v>
+      </c>
+      <c r="C36" s="44"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="116" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="53">
-        <v>37384</v>
+        <v>37354</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="116" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B38" s="53">
-        <v>37460</v>
+        <v>37384</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="116" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B39" s="53">
-        <v>37718</v>
+        <v>37460</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="45">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="116" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B40" s="53">
         <v>37718</v>
       </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="45"/>
+      <c r="C40" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="45">
+        <v>100</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41" s="53">
-        <v>37720</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>19</v>
-      </c>
+        <v>37718</v>
+      </c>
+      <c r="C41" s="44"/>
       <c r="D41" s="45"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1349,206 +1351,206 @@
         <v>9</v>
       </c>
       <c r="B42" s="53">
-        <v>37746</v>
+        <v>37720</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D42" s="45"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="116" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B43" s="53">
-        <v>37846</v>
+        <v>37746</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D43" s="45"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="116" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B44" s="53">
-        <v>38071</v>
-      </c>
-      <c r="C44" s="44"/>
+        <v>37846</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="53">
-        <v>38107</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>14</v>
-      </c>
+        <v>38071</v>
+      </c>
+      <c r="C45" s="44"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="116" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B46" s="53">
-        <v>38121</v>
+        <v>38107</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="45">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="116" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B47" s="53">
-        <v>38176</v>
+        <v>38121</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="D47" s="45">
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="116" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B48" s="53">
-        <v>38280</v>
+        <v>38176</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="116" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B49" s="53">
-        <v>38449</v>
-      </c>
-      <c r="C49" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="45">
-        <v>100</v>
+        <v>38280</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="116" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B50" s="53">
         <v>38449</v>
       </c>
-      <c r="C50" s="44"/>
+      <c r="C50" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="45">
+        <v>100</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51" s="53">
-        <v>38451</v>
-      </c>
-      <c r="C51" s="44" t="s">
-        <v>12</v>
-      </c>
+        <v>38449</v>
+      </c>
+      <c r="C51" s="44"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="116" t="s">
         <v>9</v>
       </c>
       <c r="B52" s="53">
-        <v>38477</v>
+        <v>38451</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="53">
+        <v>38477</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="53">
+      <c r="B54" s="53">
         <v>38577</v>
       </c>
-      <c r="C53" s="44" t="s">
+      <c r="C54" s="44" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="117" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="54">
+      <c r="B55" s="54">
         <v>38826</v>
       </c>
-      <c r="C54" s="51" t="s">
+      <c r="C55" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="55">
+      <c r="D55" s="55">
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="56">
         <v>38874</v>
       </c>
-      <c r="C55" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="45"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="117" t="s">
+      <c r="C56" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="45"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="54">
+      <c r="B57" s="54">
         <v>38877</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="C57" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="55">
+      <c r="D57" s="55">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="118" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="58">
+      <c r="B58" s="58">
         <v>38905</v>
       </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="50">
+      <c r="C58" s="45"/>
+      <c r="D58" s="50">
         <v>42</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="B58" s="59">
-        <v>38910</v>
-      </c>
-      <c r="C58" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="45"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="119" t="s">
         <v>24</v>
       </c>
       <c r="B59" s="59">
-        <v>38952</v>
+        <v>38910</v>
       </c>
       <c r="C59" s="45" t="s">
         <v>5</v>
@@ -1560,71 +1562,71 @@
         <v>24</v>
       </c>
       <c r="B60" s="59">
+        <v>38952</v>
+      </c>
+      <c r="C60" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="45"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="59">
         <v>39001</v>
       </c>
-      <c r="C60" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="45"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="120" t="s">
+      <c r="C61" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="45"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="61">
+      <c r="B62" s="61">
         <v>39164</v>
       </c>
-      <c r="C61" s="60" t="s">
+      <c r="C62" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="55">
+      <c r="D62" s="55">
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="59">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="59">
         <v>39226</v>
       </c>
-      <c r="C62" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="45"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="120" t="s">
+      <c r="C63" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="45"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="61">
+      <c r="B64" s="61">
         <v>39231</v>
       </c>
-      <c r="C63" s="60" t="s">
+      <c r="C64" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="55">
+      <c r="D64" s="55">
         <v>109</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" s="59">
-        <v>39266</v>
-      </c>
-      <c r="C64" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="45"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="119" t="s">
         <v>24</v>
       </c>
       <c r="B65" s="59">
-        <v>39301</v>
+        <v>39266</v>
       </c>
       <c r="C65" s="45" t="s">
         <v>5</v>
@@ -1636,71 +1638,71 @@
         <v>24</v>
       </c>
       <c r="B66" s="59">
+        <v>39301</v>
+      </c>
+      <c r="C66" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="45"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="59">
         <v>39371</v>
       </c>
-      <c r="C66" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="45"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="120" t="s">
+      <c r="C67" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="45"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="61">
+      <c r="B68" s="61">
         <v>39546</v>
       </c>
-      <c r="C67" s="60" t="s">
+      <c r="C68" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D67" s="55">
+      <c r="D68" s="55">
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="B68" s="59">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="59">
         <v>39595</v>
       </c>
-      <c r="C68" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="45"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="120" t="s">
+      <c r="C69" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="45"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="61">
+      <c r="B70" s="61">
         <v>39603</v>
       </c>
-      <c r="C69" s="60" t="s">
+      <c r="C70" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="55">
+      <c r="D70" s="55">
         <v>104</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" s="59">
-        <v>39637</v>
-      </c>
-      <c r="C70" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="45"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="119" t="s">
         <v>24</v>
       </c>
       <c r="B71" s="59">
-        <v>39679</v>
+        <v>39637</v>
       </c>
       <c r="C71" s="45" t="s">
         <v>5</v>
@@ -1712,63 +1714,63 @@
         <v>24</v>
       </c>
       <c r="B72" s="59">
+        <v>39679</v>
+      </c>
+      <c r="C72" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="45"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="59">
         <v>39735</v>
       </c>
-      <c r="C72" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="45"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="120" t="s">
+      <c r="C73" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="45"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="61">
+      <c r="B74" s="61">
         <v>39898</v>
       </c>
-      <c r="C73" s="60" t="s">
+      <c r="C74" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D73" s="55">
+      <c r="D74" s="55">
         <v>103</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74" s="59">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="59">
         <v>39952</v>
       </c>
-      <c r="C74" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="45"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="120" t="s">
+      <c r="C75" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="45"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="B75" s="61">
+      <c r="B76" s="61">
         <v>39962</v>
       </c>
-      <c r="C75" s="60" t="s">
+      <c r="C76" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D75" s="55">
+      <c r="D76" s="55">
         <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="118" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" s="58">
-        <v>39968</v>
-      </c>
-      <c r="C76" s="45"/>
-      <c r="D76" s="50">
-        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1776,112 +1778,112 @@
         <v>15</v>
       </c>
       <c r="B77" s="58">
-        <v>39988</v>
+        <v>39968</v>
       </c>
       <c r="C77" s="45"/>
       <c r="D77" s="50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="118" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="58">
+        <v>39988</v>
+      </c>
+      <c r="C78" s="45"/>
+      <c r="D78" s="50">
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="B78" s="59">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="59">
         <v>40000</v>
       </c>
-      <c r="C78" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="45"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="118" t="s">
+      <c r="C79" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="45"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="B79" s="58">
+      <c r="B80" s="58">
         <v>40002</v>
       </c>
-      <c r="C79" s="45"/>
-      <c r="D79" s="50">
+      <c r="C80" s="45"/>
+      <c r="D80" s="50">
         <v>40</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="B80" s="59">
-        <v>40039</v>
-      </c>
-      <c r="C80" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="45"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="119" t="s">
         <v>24</v>
       </c>
       <c r="B81" s="59">
+        <v>40039</v>
+      </c>
+      <c r="C81" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="45"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="59">
         <v>40107</v>
       </c>
-      <c r="C81" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="45"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="121" t="s">
+      <c r="C82" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="45"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="B82" s="47">
+      <c r="B83" s="47">
         <v>40283</v>
       </c>
-      <c r="C82" s="45"/>
-      <c r="D82" s="45"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="122" t="s">
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="B83" s="47">
+      <c r="B84" s="47">
         <v>40290</v>
       </c>
-      <c r="C83" s="45" t="s">
+      <c r="C84" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="45"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="123" t="s">
+      <c r="D84" s="45"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="B84" s="97">
+      <c r="B85" s="97">
         <v>40359</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="118" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="B85" s="58">
+      <c r="B86" s="58">
         <v>40361</v>
-      </c>
-      <c r="C85" s="45"/>
-      <c r="D85" s="50">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="124" t="s">
-        <v>15</v>
-      </c>
-      <c r="B86" s="53">
-        <v>40389</v>
       </c>
       <c r="C86" s="45"/>
       <c r="D86" s="50">
@@ -1889,14 +1891,15 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="125" t="s">
-        <v>24</v>
-      </c>
-      <c r="B87" s="96">
-        <v>40413</v>
-      </c>
-      <c r="C87" t="s">
-        <v>13</v>
+      <c r="A87" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="53">
+        <v>40389</v>
+      </c>
+      <c r="C87" s="45"/>
+      <c r="D87" s="50">
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1904,9 +1907,20 @@
         <v>24</v>
       </c>
       <c r="B88" s="96">
+        <v>40413</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="125" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" s="96">
         <v>40477</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1921,10 +1935,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L383"/>
+  <dimension ref="A1:L384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,7 +1970,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="42">
-        <v>34425</v>
+        <v>34444</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>5</v>
@@ -1964,75 +1978,77 @@
       <c r="D2" s="43"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="114" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="63">
-        <v>34487</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="50"/>
+      <c r="A3" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="65">
+        <v>34444</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="66">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="100">
-        <v>34547</v>
-      </c>
-      <c r="C4" s="99" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="62"/>
+      <c r="B4" s="63">
+        <v>34487</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="50"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="101">
+      <c r="B5" s="100">
+        <v>34547</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="62"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="101">
         <v>34622</v>
       </c>
-      <c r="C5" s="99" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="62"/>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="65">
-        <v>34809</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="66">
-        <v>140</v>
-      </c>
+      <c r="C6" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="62"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="115" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B7" s="65">
+        <v>34809</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="66">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="65">
         <v>34852</v>
       </c>
-      <c r="C7" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="40"/>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="114" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="100">
-        <v>34912</v>
-      </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="64" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="40"/>
@@ -2041,102 +2057,99 @@
       <c r="A9" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="101">
+      <c r="B9" s="100">
+        <v>34912</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="101">
         <v>34987</v>
       </c>
-      <c r="C9" s="99" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="40"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="65">
-        <v>35178</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="66">
-        <v>60</v>
-      </c>
+      <c r="C10" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="115" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="65">
         <v>35178</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="40"/>
-      <c r="I11" s="3"/>
+      <c r="C11" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="66">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="65">
-        <v>35180</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>18</v>
-      </c>
+        <v>35178</v>
+      </c>
+      <c r="C12" s="44"/>
       <c r="D12" s="40"/>
-      <c r="I12" s="4"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="115" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B13" s="65">
-        <v>35282</v>
+        <v>35180</v>
       </c>
       <c r="C13" s="64" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="40"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="115" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B14" s="65">
-        <v>35334</v>
-      </c>
-      <c r="C14" s="44"/>
+        <v>35282</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>18</v>
+      </c>
       <c r="D14" s="40"/>
-      <c r="I14" s="4"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="65">
-        <v>35335</v>
-      </c>
-      <c r="C15" s="64" t="s">
-        <v>10</v>
-      </c>
+        <v>35334</v>
+      </c>
+      <c r="C15" s="44"/>
       <c r="D15" s="40"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="115" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B16" s="65">
-        <v>35550</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="66">
-        <v>85</v>
-      </c>
+        <v>35335</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="40"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2144,7 +2157,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="65">
-        <v>35563</v>
+        <v>35550</v>
       </c>
       <c r="C17" s="44" t="s">
         <v>7</v>
@@ -2156,153 +2169,155 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="115" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" s="65">
-        <v>35662</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="40"/>
+        <v>35563</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="66">
+        <v>85</v>
+      </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="115" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" s="65">
-        <v>35906</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="66">
-        <v>250</v>
-      </c>
+        <v>35662</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="40"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="115" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20" s="65">
         <v>35906</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="40"/>
-      <c r="I20" s="4"/>
+      <c r="C20" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="66">
+        <v>250</v>
+      </c>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="65">
-        <v>35909</v>
-      </c>
-      <c r="C21" s="64" t="s">
-        <v>11</v>
-      </c>
+        <v>35906</v>
+      </c>
+      <c r="C21" s="44"/>
       <c r="D21" s="40"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="115" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B22" s="65">
-        <v>36102</v>
+        <v>35909</v>
       </c>
       <c r="C22" s="64" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="40"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="68">
-        <v>36257</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="69">
-        <v>100</v>
-      </c>
-      <c r="I23" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B23" s="65">
+        <v>36102</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="115" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="68">
         <v>36257</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="40"/>
-      <c r="I24" s="1"/>
+      <c r="C24" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="69">
+        <v>100</v>
+      </c>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="68">
-        <v>36259</v>
-      </c>
-      <c r="C25" s="70" t="s">
-        <v>22</v>
-      </c>
+        <v>36257</v>
+      </c>
+      <c r="C25" s="44"/>
       <c r="D25" s="40"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="115" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B26" s="68">
-        <v>36395</v>
-      </c>
-      <c r="C26" s="67" t="s">
-        <v>12</v>
+        <v>36259</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>22</v>
       </c>
       <c r="D26" s="40"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="115" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B27" s="68">
+        <v>36395</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="68">
         <v>36668</v>
       </c>
-      <c r="C27" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="40"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="114" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="100">
-        <v>36739</v>
-      </c>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="67" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="40"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="101">
-        <v>36814</v>
+      <c r="B29" s="100">
+        <v>36739</v>
       </c>
       <c r="C29" s="99" t="s">
         <v>5</v>
@@ -2311,95 +2326,95 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="65">
-        <v>36987</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="71">
-        <v>140</v>
-      </c>
+      <c r="A30" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="101">
+        <v>36814</v>
+      </c>
+      <c r="C30" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="40"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="68">
+        <v>6</v>
+      </c>
+      <c r="B31" s="65">
+        <v>36987</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="71">
+        <v>140</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="68">
         <v>37050</v>
       </c>
-      <c r="C31" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="40"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="114" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="100">
-        <v>37104</v>
-      </c>
-      <c r="C32" s="99" t="s">
+      <c r="C32" s="67" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="40"/>
-      <c r="I32" s="7"/>
+      <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="101">
+      <c r="B33" s="100">
+        <v>37104</v>
+      </c>
+      <c r="C33" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="101">
         <v>37179</v>
       </c>
-      <c r="C33" s="99" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="40"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="116" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="53">
-        <v>37349</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="73">
-        <v>100</v>
-      </c>
-      <c r="I34" s="9"/>
+      <c r="C34" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="40"/>
+      <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="116" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B35" s="53">
         <v>37349</v>
       </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="72"/>
-      <c r="I35" s="1"/>
+      <c r="C35" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="73">
+        <v>100</v>
+      </c>
+      <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" s="53">
-        <v>37354</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>18</v>
-      </c>
+        <v>37349</v>
+      </c>
+      <c r="C36" s="44"/>
       <c r="D36" s="72"/>
       <c r="I36" s="1"/>
     </row>
@@ -2408,63 +2423,63 @@
         <v>9</v>
       </c>
       <c r="B37" s="53">
-        <v>37384</v>
+        <v>37354</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D37" s="72"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="116" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B38" s="53">
-        <v>37460</v>
+        <v>37384</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D38" s="72"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="116" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B39" s="53">
-        <v>37718</v>
+        <v>37460</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="73">
-        <v>100</v>
-      </c>
-      <c r="I39" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D39" s="72"/>
+      <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="116" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B40" s="53">
         <v>37718</v>
       </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="73"/>
+      <c r="C40" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="73">
+        <v>100</v>
+      </c>
       <c r="I40" s="9"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41" s="53">
-        <v>37720</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>19</v>
-      </c>
+        <v>37718</v>
+      </c>
+      <c r="C41" s="44"/>
       <c r="D41" s="73"/>
       <c r="I41" s="9"/>
     </row>
@@ -2473,226 +2488,227 @@
         <v>9</v>
       </c>
       <c r="B42" s="53">
-        <v>37746</v>
+        <v>37720</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D42" s="73"/>
       <c r="I42" s="9"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="116" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B43" s="53">
-        <v>37846</v>
+        <v>37746</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="72"/>
-      <c r="I43" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D43" s="73"/>
+      <c r="I43" s="9"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="116" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B44" s="53">
-        <v>38071</v>
-      </c>
-      <c r="C44" s="44"/>
+        <v>37846</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>19</v>
+      </c>
       <c r="D44" s="72"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="53">
-        <v>38107</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>14</v>
-      </c>
+        <v>38071</v>
+      </c>
+      <c r="C45" s="44"/>
       <c r="D45" s="72"/>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="116" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B46" s="53">
-        <v>38121</v>
+        <v>38107</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="73">
-        <v>200</v>
-      </c>
-      <c r="I46" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="D46" s="72"/>
+      <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="116" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B47" s="53">
-        <v>38176</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="72"/>
-      <c r="I47" s="1"/>
+        <v>38121</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="73">
+        <v>200</v>
+      </c>
+      <c r="I47" s="9"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="116" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B48" s="53">
-        <v>38280</v>
-      </c>
-      <c r="C48" s="44" t="s">
-        <v>14</v>
+        <v>38176</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="D48" s="72"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="116" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B49" s="53">
-        <v>38449</v>
-      </c>
-      <c r="C49" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="72">
-        <v>100</v>
-      </c>
+        <v>38280</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="72"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="116" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B50" s="53">
         <v>38449</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="72"/>
-      <c r="I50" s="9"/>
+      <c r="C50" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="72">
+        <v>100</v>
+      </c>
+      <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51" s="53">
-        <v>38451</v>
-      </c>
-      <c r="C51" s="44" t="s">
-        <v>12</v>
-      </c>
+        <v>38449</v>
+      </c>
+      <c r="C51" s="44"/>
       <c r="D51" s="72"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="9"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="116" t="s">
         <v>9</v>
       </c>
       <c r="B52" s="53">
-        <v>38477</v>
+        <v>38451</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D52" s="72"/>
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="113" t="s">
+      <c r="A53" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="53">
+        <v>38477</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="72"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="58">
+      <c r="B54" s="58">
         <v>38577</v>
       </c>
-      <c r="C53" s="45" t="s">
+      <c r="C54" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="72"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="120" t="s">
+      <c r="D54" s="72"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="61">
+      <c r="B55" s="61">
         <v>38826</v>
       </c>
-      <c r="C54" s="60" t="s">
+      <c r="C55" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="55">
+      <c r="D55" s="55">
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="59">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="59">
         <v>38874</v>
       </c>
-      <c r="C55" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="73"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="120" t="s">
+      <c r="C56" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="73"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="61">
+      <c r="B57" s="61">
         <v>38877</v>
       </c>
-      <c r="C56" s="60" t="s">
+      <c r="C57" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="55">
+      <c r="D57" s="55">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="118" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="58">
+      <c r="B58" s="58">
         <v>38905</v>
       </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="77">
+      <c r="C58" s="45"/>
+      <c r="D58" s="77">
         <v>42</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="B58" s="59">
-        <v>38910</v>
-      </c>
-      <c r="C58" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="73"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="119" t="s">
         <v>24</v>
       </c>
       <c r="B59" s="59">
-        <v>38952</v>
+        <v>38910</v>
       </c>
       <c r="C59" s="45" t="s">
         <v>5</v>
@@ -2704,71 +2720,71 @@
         <v>24</v>
       </c>
       <c r="B60" s="59">
+        <v>38952</v>
+      </c>
+      <c r="C60" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="73"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="59">
         <v>39001</v>
       </c>
-      <c r="C60" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="73"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="120" t="s">
+      <c r="C61" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="73"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="61">
+      <c r="B62" s="61">
         <v>39164</v>
       </c>
-      <c r="C61" s="60" t="s">
+      <c r="C62" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="55">
+      <c r="D62" s="55">
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="59">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="59">
         <v>39226</v>
       </c>
-      <c r="C62" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="73"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="120" t="s">
+      <c r="C63" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="73"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="61">
+      <c r="B64" s="61">
         <v>39231</v>
       </c>
-      <c r="C63" s="60" t="s">
+      <c r="C64" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="55">
+      <c r="D64" s="55">
         <v>109</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="119" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" s="59">
-        <v>39266</v>
-      </c>
-      <c r="C64" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="73"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="119" t="s">
         <v>24</v>
       </c>
       <c r="B65" s="59">
-        <v>39301</v>
+        <v>39266</v>
       </c>
       <c r="C65" s="45" t="s">
         <v>5</v>
@@ -2780,72 +2796,65 @@
         <v>24</v>
       </c>
       <c r="B66" s="59">
+        <v>39301</v>
+      </c>
+      <c r="C66" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="73"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="59">
         <v>39371</v>
       </c>
-      <c r="C66" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="73"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="113" t="s">
+      <c r="C67" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="73"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="47">
+      <c r="B68" s="47">
         <v>39554</v>
       </c>
-      <c r="C67" s="45"/>
-      <c r="D67" s="73"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="122" t="s">
+      <c r="C68" s="45"/>
+      <c r="D68" s="73"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="47">
+      <c r="B69" s="47">
         <v>39559</v>
       </c>
-      <c r="C68" s="45" t="s">
+      <c r="C69" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="73"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="123" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="97">
-        <v>39616</v>
-      </c>
-      <c r="C69" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="27"/>
+      <c r="D69" s="73"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="123" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B70" s="97">
-        <v>39680</v>
+        <v>39616</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="28"/>
-      <c r="F70" s="60"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="50"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="50"/>
-      <c r="L70" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="D70" s="27"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="123" t="s">
         <v>24</v>
       </c>
       <c r="B71" s="97">
-        <v>39736</v>
+        <v>39680</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
@@ -2860,77 +2869,84 @@
       <c r="L71" s="43"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="113" t="s">
+      <c r="A72" s="123" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="97">
+        <v>39736</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="28"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="43"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="47">
+      <c r="B73" s="47">
         <v>39903</v>
       </c>
-      <c r="C72" s="45"/>
-      <c r="D72" s="73"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="120" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" s="61">
-        <v>39920</v>
-      </c>
-      <c r="C73" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="55">
-        <v>97</v>
-      </c>
+      <c r="C73" s="45"/>
+      <c r="D73" s="73"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="120" t="s">
         <v>6</v>
       </c>
       <c r="B74" s="61">
-        <v>39930</v>
+        <v>39920</v>
       </c>
       <c r="C74" s="60" t="s">
         <v>7</v>
       </c>
       <c r="D74" s="55">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="61">
+        <v>39930</v>
+      </c>
+      <c r="C75" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="55">
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="122" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="47">
+      <c r="B76" s="47">
         <v>39930</v>
       </c>
-      <c r="C75" s="45" t="s">
+      <c r="C76" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="73"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="118" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" s="58">
-        <v>39968</v>
-      </c>
-      <c r="C76" s="45"/>
-      <c r="D76" s="77">
-        <v>20</v>
-      </c>
+      <c r="D76" s="73"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="118" t="s">
         <v>15</v>
       </c>
       <c r="B77" s="58">
-        <v>39988</v>
+        <v>39968</v>
       </c>
       <c r="C77" s="45"/>
       <c r="D77" s="77">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -2938,111 +2954,117 @@
         <v>15</v>
       </c>
       <c r="B78" s="58">
-        <v>40002</v>
+        <v>39988</v>
       </c>
       <c r="C78" s="45"/>
       <c r="D78" s="77">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="118" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="58">
+        <v>40002</v>
+      </c>
+      <c r="C79" s="45"/>
+      <c r="D79" s="77">
         <v>25</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="113" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" s="47">
-        <v>40113</v>
-      </c>
-      <c r="C79" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" s="73"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="47">
+        <v>40113</v>
+      </c>
+      <c r="C80" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="73"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="47">
+      <c r="B81" s="47">
         <v>40283</v>
       </c>
-      <c r="C80" s="45"/>
-      <c r="D80" s="73"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="128" t="s">
+      <c r="C81" s="45"/>
+      <c r="D81" s="73"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="74">
+      <c r="B82" s="74">
         <v>40290</v>
       </c>
-      <c r="C81" s="45" t="s">
+      <c r="C82" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D81" s="73"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="124" t="s">
+      <c r="D82" s="73"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="B82" s="53">
+      <c r="B83" s="53">
         <v>40361</v>
       </c>
-      <c r="C82" s="45"/>
-      <c r="D82" s="77">
+      <c r="C83" s="45"/>
+      <c r="D83" s="77">
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="116" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="74">
+      <c r="B84" s="74">
         <v>40407</v>
       </c>
-      <c r="C83" s="45" t="s">
+      <c r="C84" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="73"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="129"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="26"/>
+      <c r="D84" s="73"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="129"/>
       <c r="B85" s="18"/>
       <c r="C85" s="4"/>
-      <c r="D85" s="28"/>
+      <c r="D85" s="26"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="129"/>
       <c r="B86" s="18"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="27"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="28"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="129"/>
       <c r="B87" s="18"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="28"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="27"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="129"/>
       <c r="B88" s="18"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="27"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="28"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="129"/>
       <c r="B89" s="18"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="28"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="27"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="129"/>
       <c r="B90" s="18"/>
-      <c r="C90" s="4"/>
+      <c r="C90" s="9"/>
       <c r="D90" s="28"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3053,44 +3075,44 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="129"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="29"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="28"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="129"/>
       <c r="B93" s="19"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="28"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="29"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="129"/>
       <c r="B94" s="19"/>
-      <c r="C94" s="6"/>
+      <c r="C94" s="9"/>
       <c r="D94" s="28"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="130"/>
-      <c r="B95" s="5"/>
+      <c r="A95" s="129"/>
+      <c r="B95" s="19"/>
       <c r="C95" s="6"/>
-      <c r="D95" s="32"/>
+      <c r="D95" s="28"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="130"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="33"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="32"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="130"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="32"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="33"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="130"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="4"/>
+      <c r="C98" s="9"/>
       <c r="D98" s="32"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3101,20 +3123,20 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="130"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="34"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="32"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="130"/>
       <c r="B101" s="5"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="32"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="34"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="130"/>
       <c r="B102" s="5"/>
-      <c r="C102" s="6"/>
+      <c r="C102" s="9"/>
       <c r="D102" s="32"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3130,28 +3152,28 @@
       <c r="D104" s="32"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="131"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="35"/>
+      <c r="A105" s="130"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="32"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="131"/>
       <c r="B106" s="8"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="32"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="35"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="131"/>
       <c r="B107" s="8"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="35"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="32"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="131"/>
       <c r="B108" s="8"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="32"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="35"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="131"/>
@@ -3180,14 +3202,14 @@
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="131"/>
       <c r="B113" s="8"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="35"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="32"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="131"/>
       <c r="B114" s="8"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="32"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="35"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="131"/>
@@ -3198,14 +3220,14 @@
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="131"/>
       <c r="B116" s="8"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="35"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="32"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="131"/>
       <c r="B117" s="8"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="32"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="35"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="131"/>
@@ -3226,9 +3248,9 @@
       <c r="D120" s="32"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="132"/>
+      <c r="A121" s="131"/>
       <c r="B121" s="8"/>
-      <c r="C121" s="9"/>
+      <c r="C121" s="3"/>
       <c r="D121" s="32"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3238,9 +3260,9 @@
       <c r="D122" s="32"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="131"/>
+      <c r="A123" s="132"/>
       <c r="B123" s="8"/>
-      <c r="C123" s="16"/>
+      <c r="C123" s="9"/>
       <c r="D123" s="32"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3264,26 +3286,26 @@
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="131"/>
       <c r="B127" s="8"/>
-      <c r="C127" s="3"/>
+      <c r="C127" s="16"/>
       <c r="D127" s="32"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="133"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="30"/>
+      <c r="A128" s="131"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="32"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="134"/>
+      <c r="A129" s="133"/>
       <c r="B129" s="17"/>
       <c r="C129" s="9"/>
       <c r="D129" s="30"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="135"/>
-      <c r="B130" s="12"/>
+      <c r="A130" s="134"/>
+      <c r="B130" s="17"/>
       <c r="C130" s="9"/>
-      <c r="D130" s="26"/>
+      <c r="D130" s="30"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="135"/>
@@ -3292,34 +3314,34 @@
       <c r="D131" s="26"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="133"/>
-      <c r="B132" s="17"/>
+      <c r="A132" s="135"/>
+      <c r="B132" s="12"/>
       <c r="C132" s="9"/>
-      <c r="D132" s="30"/>
+      <c r="D132" s="26"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="136"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="31"/>
+      <c r="A133" s="133"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="30"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="133"/>
-      <c r="B134" s="13"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="30"/>
+      <c r="A134" s="136"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="31"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="136"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="31"/>
+      <c r="A135" s="133"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="30"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="133"/>
-      <c r="B136" s="13"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="30"/>
+      <c r="A136" s="136"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="31"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="133"/>
@@ -3334,40 +3356,40 @@
       <c r="D138" s="30"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="136"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="11"/>
+      <c r="A139" s="133"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="30"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="133"/>
-      <c r="B140" s="13"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="30"/>
+      <c r="A140" s="136"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="11"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="136"/>
-      <c r="B141" s="15"/>
-      <c r="C141" s="14"/>
-      <c r="D141" s="11"/>
+      <c r="A141" s="133"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="30"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="133"/>
-      <c r="B142" s="13"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="30"/>
+      <c r="A142" s="136"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="11"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="135"/>
-      <c r="B143" s="21"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="28"/>
+      <c r="A143" s="133"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="30"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="133"/>
-      <c r="B144" s="13"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="30"/>
+      <c r="A144" s="135"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="28"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="133"/>
@@ -3376,34 +3398,34 @@
       <c r="D145" s="30"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="135"/>
-      <c r="B146" s="21"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="28"/>
+      <c r="A146" s="133"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="30"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="136"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="14"/>
-      <c r="D147" s="11"/>
+      <c r="A147" s="135"/>
+      <c r="B147" s="21"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="28"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="133"/>
-      <c r="B148" s="13"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="30"/>
+      <c r="A148" s="136"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="11"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="136"/>
-      <c r="B149" s="15"/>
-      <c r="C149" s="14"/>
-      <c r="D149" s="11"/>
+      <c r="A149" s="133"/>
+      <c r="B149" s="13"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="30"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="135"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="9"/>
-      <c r="D150" s="26"/>
+      <c r="A150" s="136"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="11"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="135"/>
@@ -3412,22 +3434,22 @@
       <c r="D151" s="26"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="133"/>
-      <c r="B152" s="13"/>
+      <c r="A152" s="135"/>
+      <c r="B152" s="12"/>
       <c r="C152" s="9"/>
-      <c r="D152" s="30"/>
+      <c r="D152" s="26"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="135"/>
-      <c r="B153" s="12"/>
+      <c r="A153" s="133"/>
+      <c r="B153" s="13"/>
       <c r="C153" s="9"/>
-      <c r="D153" s="26"/>
+      <c r="D153" s="30"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="133"/>
-      <c r="B154" s="13"/>
+      <c r="A154" s="135"/>
+      <c r="B154" s="12"/>
       <c r="C154" s="9"/>
-      <c r="D154" s="30"/>
+      <c r="D154" s="26"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="133"/>
@@ -3436,46 +3458,46 @@
       <c r="D155" s="30"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="136"/>
-      <c r="B156" s="15"/>
-      <c r="C156" s="14"/>
-      <c r="D156" s="11"/>
+      <c r="A156" s="133"/>
+      <c r="B156" s="13"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="30"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="133"/>
-      <c r="B157" s="13"/>
-      <c r="C157" s="9"/>
-      <c r="D157" s="36"/>
+      <c r="A157" s="136"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="11"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="136"/>
-      <c r="B158" s="15"/>
-      <c r="C158" s="14"/>
-      <c r="D158" s="23"/>
+      <c r="A158" s="133"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="36"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="135"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="37"/>
+      <c r="A159" s="136"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="23"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="133"/>
-      <c r="B160" s="13"/>
+      <c r="A160" s="135"/>
+      <c r="B160" s="12"/>
       <c r="C160" s="9"/>
-      <c r="D160" s="30"/>
+      <c r="D160" s="37"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="135"/>
-      <c r="B161" s="12"/>
+      <c r="A161" s="133"/>
+      <c r="B161" s="13"/>
       <c r="C161" s="9"/>
-      <c r="D161" s="26"/>
+      <c r="D161" s="30"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="133"/>
-      <c r="B162" s="13"/>
+      <c r="A162" s="135"/>
+      <c r="B162" s="12"/>
       <c r="C162" s="9"/>
-      <c r="D162" s="30"/>
+      <c r="D162" s="26"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="133"/>
@@ -3484,63 +3506,63 @@
       <c r="D163" s="30"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="129"/>
-      <c r="B164" s="18"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="27"/>
+      <c r="A164" s="133"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="9"/>
+      <c r="D164" s="30"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="129"/>
       <c r="B165" s="18"/>
-      <c r="C165" s="9"/>
-      <c r="D165" s="28"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="27"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="129"/>
       <c r="B166" s="18"/>
-      <c r="C166" s="4"/>
+      <c r="C166" s="9"/>
       <c r="D166" s="28"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="129"/>
       <c r="B167" s="18"/>
       <c r="C167" s="4"/>
-      <c r="D167" s="26"/>
+      <c r="D167" s="28"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="129"/>
       <c r="B168" s="18"/>
       <c r="C168" s="4"/>
-      <c r="D168" s="28"/>
+      <c r="D168" s="26"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="129"/>
       <c r="B169" s="18"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="27"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="28"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="129"/>
       <c r="B170" s="18"/>
-      <c r="C170" s="4"/>
-      <c r="D170" s="28"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="27"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="129"/>
       <c r="B171" s="18"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="27"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="28"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="129"/>
       <c r="B172" s="18"/>
-      <c r="C172" s="9"/>
-      <c r="D172" s="28"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="27"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="129"/>
       <c r="B173" s="18"/>
-      <c r="C173" s="4"/>
+      <c r="C173" s="9"/>
       <c r="D173" s="28"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3551,20 +3573,20 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="129"/>
-      <c r="B175" s="19"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="29"/>
+      <c r="B175" s="18"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="28"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="129"/>
       <c r="B176" s="19"/>
-      <c r="C176" s="9"/>
-      <c r="D176" s="28"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="29"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="129"/>
       <c r="B177" s="19"/>
-      <c r="C177" s="6"/>
+      <c r="C177" s="9"/>
       <c r="D177" s="28"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3575,20 +3597,20 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="129"/>
-      <c r="B179" s="18"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="27"/>
+      <c r="B179" s="19"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="28"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="129"/>
       <c r="B180" s="18"/>
-      <c r="C180" s="9"/>
-      <c r="D180" s="28"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="27"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="129"/>
       <c r="B181" s="18"/>
-      <c r="C181" s="4"/>
+      <c r="C181" s="9"/>
       <c r="D181" s="28"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3599,20 +3621,20 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="129"/>
-      <c r="B183" s="19"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="29"/>
+      <c r="B183" s="18"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="28"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="129"/>
       <c r="B184" s="19"/>
-      <c r="C184" s="9"/>
-      <c r="D184" s="28"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="29"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="129"/>
       <c r="B185" s="19"/>
-      <c r="C185" s="6"/>
+      <c r="C185" s="9"/>
       <c r="D185" s="28"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3628,28 +3650,28 @@
       <c r="D187" s="28"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="135"/>
-      <c r="B188" s="12"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="26"/>
+      <c r="A188" s="129"/>
+      <c r="B188" s="19"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="28"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="135"/>
       <c r="B189" s="12"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="28"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="26"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="135"/>
       <c r="B190" s="12"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="26"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="28"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="135"/>
       <c r="B191" s="12"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="28"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="26"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="135"/>
@@ -3678,14 +3700,14 @@
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="135"/>
       <c r="B196" s="12"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="26"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="28"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="135"/>
       <c r="B197" s="12"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="28"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="26"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="135"/>
@@ -3696,14 +3718,14 @@
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="135"/>
       <c r="B199" s="12"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="26"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="28"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="135"/>
       <c r="B200" s="12"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="28"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="26"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="135"/>
@@ -3731,7 +3753,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="135"/>
-      <c r="B205" s="21"/>
+      <c r="B205" s="12"/>
       <c r="C205" s="3"/>
       <c r="D205" s="28"/>
     </row>
@@ -3742,22 +3764,22 @@
       <c r="D206" s="28"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="133"/>
-      <c r="B207" s="17"/>
-      <c r="C207" s="9"/>
-      <c r="D207" s="30"/>
+      <c r="A207" s="135"/>
+      <c r="B207" s="21"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="28"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="134"/>
+      <c r="A208" s="133"/>
       <c r="B208" s="17"/>
       <c r="C208" s="9"/>
       <c r="D208" s="30"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="135"/>
-      <c r="B209" s="12"/>
+      <c r="A209" s="134"/>
+      <c r="B209" s="17"/>
       <c r="C209" s="9"/>
-      <c r="D209" s="26"/>
+      <c r="D209" s="30"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="135"/>
@@ -3766,34 +3788,34 @@
       <c r="D210" s="26"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="133"/>
-      <c r="B211" s="17"/>
+      <c r="A211" s="135"/>
+      <c r="B211" s="12"/>
       <c r="C211" s="9"/>
-      <c r="D211" s="30"/>
+      <c r="D211" s="26"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="136"/>
-      <c r="B212" s="15"/>
-      <c r="C212" s="14"/>
-      <c r="D212" s="11"/>
+      <c r="A212" s="133"/>
+      <c r="B212" s="17"/>
+      <c r="C212" s="9"/>
+      <c r="D212" s="30"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="133"/>
-      <c r="B213" s="13"/>
-      <c r="C213" s="9"/>
-      <c r="D213" s="30"/>
+      <c r="A213" s="136"/>
+      <c r="B213" s="15"/>
+      <c r="C213" s="14"/>
+      <c r="D213" s="11"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="136"/>
-      <c r="B214" s="15"/>
-      <c r="C214" s="14"/>
-      <c r="D214" s="11"/>
+      <c r="A214" s="133"/>
+      <c r="B214" s="13"/>
+      <c r="C214" s="9"/>
+      <c r="D214" s="30"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="133"/>
-      <c r="B215" s="13"/>
-      <c r="C215" s="9"/>
-      <c r="D215" s="30"/>
+      <c r="A215" s="136"/>
+      <c r="B215" s="15"/>
+      <c r="C215" s="14"/>
+      <c r="D215" s="11"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="133"/>
@@ -3808,28 +3830,28 @@
       <c r="D217" s="30"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="136"/>
-      <c r="B218" s="15"/>
-      <c r="C218" s="14"/>
-      <c r="D218" s="11"/>
+      <c r="A218" s="133"/>
+      <c r="B218" s="13"/>
+      <c r="C218" s="9"/>
+      <c r="D218" s="30"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="133"/>
-      <c r="B219" s="13"/>
-      <c r="C219" s="9"/>
-      <c r="D219" s="30"/>
+      <c r="A219" s="136"/>
+      <c r="B219" s="15"/>
+      <c r="C219" s="14"/>
+      <c r="D219" s="11"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="136"/>
-      <c r="B220" s="15"/>
-      <c r="C220" s="14"/>
-      <c r="D220" s="11"/>
+      <c r="A220" s="133"/>
+      <c r="B220" s="13"/>
+      <c r="C220" s="9"/>
+      <c r="D220" s="30"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="133"/>
-      <c r="B221" s="13"/>
-      <c r="C221" s="9"/>
-      <c r="D221" s="30"/>
+      <c r="A221" s="136"/>
+      <c r="B221" s="15"/>
+      <c r="C221" s="14"/>
+      <c r="D221" s="11"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="133"/>
@@ -3845,21 +3867,21 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="133"/>
-      <c r="B224" s="17"/>
+      <c r="B224" s="13"/>
       <c r="C224" s="9"/>
       <c r="D224" s="30"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="134"/>
+      <c r="A225" s="133"/>
       <c r="B225" s="17"/>
       <c r="C225" s="9"/>
       <c r="D225" s="30"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="135"/>
-      <c r="B226" s="12"/>
+      <c r="A226" s="134"/>
+      <c r="B226" s="17"/>
       <c r="C226" s="9"/>
-      <c r="D226" s="26"/>
+      <c r="D226" s="30"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="135"/>
@@ -3868,10 +3890,10 @@
       <c r="D227" s="26"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="136"/>
-      <c r="B228" s="15"/>
-      <c r="C228" s="14"/>
-      <c r="D228" s="11"/>
+      <c r="A228" s="135"/>
+      <c r="B228" s="12"/>
+      <c r="C228" s="9"/>
+      <c r="D228" s="26"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="136"/>
@@ -3880,16 +3902,16 @@
       <c r="D229" s="11"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="134"/>
-      <c r="B230" s="17"/>
-      <c r="C230" s="9"/>
-      <c r="D230" s="30"/>
+      <c r="A230" s="136"/>
+      <c r="B230" s="15"/>
+      <c r="C230" s="14"/>
+      <c r="D230" s="11"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="135"/>
-      <c r="B231" s="12"/>
+      <c r="A231" s="134"/>
+      <c r="B231" s="17"/>
       <c r="C231" s="9"/>
-      <c r="D231" s="26"/>
+      <c r="D231" s="30"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="135"/>
@@ -3898,51 +3920,51 @@
       <c r="D232" s="26"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="133"/>
-      <c r="B233" s="17"/>
+      <c r="A233" s="135"/>
+      <c r="B233" s="12"/>
       <c r="C233" s="9"/>
-      <c r="D233" s="30"/>
+      <c r="D233" s="26"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="129"/>
-      <c r="B234" s="18"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="27"/>
+      <c r="A234" s="133"/>
+      <c r="B234" s="17"/>
+      <c r="C234" s="9"/>
+      <c r="D234" s="30"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="129"/>
       <c r="B235" s="18"/>
-      <c r="C235" s="9"/>
-      <c r="D235" s="28"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="27"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="129"/>
       <c r="B236" s="18"/>
-      <c r="C236" s="4"/>
+      <c r="C236" s="9"/>
       <c r="D236" s="28"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="129"/>
       <c r="B237" s="18"/>
       <c r="C237" s="4"/>
-      <c r="D237" s="26"/>
+      <c r="D237" s="28"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="129"/>
       <c r="B238" s="18"/>
-      <c r="C238" s="1"/>
-      <c r="D238" s="27"/>
+      <c r="C238" s="4"/>
+      <c r="D238" s="26"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="129"/>
       <c r="B239" s="18"/>
-      <c r="C239" s="9"/>
-      <c r="D239" s="28"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="27"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="129"/>
       <c r="B240" s="18"/>
-      <c r="C240" s="4"/>
+      <c r="C240" s="9"/>
       <c r="D240" s="28"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -3960,31 +3982,31 @@
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="129"/>
       <c r="B243" s="18"/>
-      <c r="C243" s="1"/>
-      <c r="D243" s="27"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="28"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="129"/>
       <c r="B244" s="18"/>
-      <c r="C244" s="4"/>
-      <c r="D244" s="30"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="27"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="129"/>
-      <c r="B245" s="19"/>
-      <c r="C245" s="1"/>
-      <c r="D245" s="29"/>
+      <c r="B245" s="18"/>
+      <c r="C245" s="4"/>
+      <c r="D245" s="30"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="129"/>
       <c r="B246" s="19"/>
-      <c r="C246" s="9"/>
-      <c r="D246" s="28"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="29"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="129"/>
       <c r="B247" s="19"/>
-      <c r="C247" s="6"/>
+      <c r="C247" s="9"/>
       <c r="D247" s="28"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -3996,19 +4018,19 @@
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="129"/>
       <c r="B249" s="19"/>
-      <c r="C249" s="1"/>
-      <c r="D249" s="29"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="28"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="129"/>
       <c r="B250" s="19"/>
-      <c r="C250" s="9"/>
-      <c r="D250" s="28"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="29"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="129"/>
       <c r="B251" s="19"/>
-      <c r="C251" s="6"/>
+      <c r="C251" s="9"/>
       <c r="D251" s="28"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -4019,44 +4041,44 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="129"/>
-      <c r="B253" s="18"/>
-      <c r="C253" s="22"/>
-      <c r="D253" s="27"/>
+      <c r="B253" s="19"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="28"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="129"/>
       <c r="B254" s="18"/>
       <c r="C254" s="22"/>
-      <c r="D254" s="28"/>
+      <c r="D254" s="27"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="129"/>
       <c r="B255" s="18"/>
-      <c r="C255" s="25"/>
+      <c r="C255" s="22"/>
       <c r="D255" s="28"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="129"/>
       <c r="B256" s="18"/>
-      <c r="C256" s="4"/>
+      <c r="C256" s="25"/>
       <c r="D256" s="28"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="129"/>
-      <c r="B257" s="19"/>
-      <c r="C257" s="1"/>
-      <c r="D257" s="29"/>
+      <c r="B257" s="18"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="28"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="129"/>
       <c r="B258" s="19"/>
-      <c r="C258" s="9"/>
-      <c r="D258" s="28"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="29"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="129"/>
       <c r="B259" s="19"/>
-      <c r="C259" s="6"/>
+      <c r="C259" s="9"/>
       <c r="D259" s="28"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -4066,34 +4088,34 @@
       <c r="D260" s="28"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" s="135"/>
-      <c r="B261" s="12"/>
-      <c r="C261" s="3"/>
+      <c r="A261" s="129"/>
+      <c r="B261" s="19"/>
+      <c r="C261" s="6"/>
       <c r="D261" s="28"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="135"/>
       <c r="B262" s="12"/>
-      <c r="C262" s="1"/>
-      <c r="D262" s="26"/>
+      <c r="C262" s="3"/>
+      <c r="D262" s="28"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="135"/>
       <c r="B263" s="12"/>
-      <c r="C263" s="3"/>
-      <c r="D263" s="28"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="26"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="135"/>
       <c r="B264" s="12"/>
-      <c r="C264" s="1"/>
-      <c r="D264" s="26"/>
+      <c r="C264" s="3"/>
+      <c r="D264" s="28"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="135"/>
       <c r="B265" s="12"/>
-      <c r="C265" s="3"/>
-      <c r="D265" s="28"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="26"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="135"/>
@@ -4108,21 +4130,21 @@
       <c r="D267" s="28"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" s="129"/>
-      <c r="B268" s="19"/>
-      <c r="C268" s="20"/>
+      <c r="A268" s="135"/>
+      <c r="B268" s="12"/>
+      <c r="C268" s="3"/>
       <c r="D268" s="28"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="129"/>
       <c r="B269" s="19"/>
-      <c r="C269" s="22"/>
+      <c r="C269" s="20"/>
       <c r="D269" s="28"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="129"/>
       <c r="B270" s="19"/>
-      <c r="C270" s="24"/>
+      <c r="C270" s="22"/>
       <c r="D270" s="28"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -4133,45 +4155,45 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="129"/>
-      <c r="B272" s="18"/>
-      <c r="C272" s="3"/>
+      <c r="B272" s="19"/>
+      <c r="C272" s="24"/>
       <c r="D272" s="28"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" s="133"/>
-      <c r="B273" s="17"/>
-      <c r="C273" s="9"/>
-      <c r="D273" s="30"/>
+      <c r="A273" s="129"/>
+      <c r="B273" s="18"/>
+      <c r="C273" s="3"/>
+      <c r="D273" s="28"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" s="134"/>
+      <c r="A274" s="133"/>
       <c r="B274" s="17"/>
       <c r="C274" s="9"/>
       <c r="D274" s="30"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" s="135"/>
-      <c r="B275" s="12"/>
+      <c r="A275" s="134"/>
+      <c r="B275" s="17"/>
       <c r="C275" s="9"/>
-      <c r="D275" s="26"/>
+      <c r="D275" s="30"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" s="133"/>
-      <c r="B276" s="17"/>
+      <c r="A276" s="135"/>
+      <c r="B276" s="12"/>
       <c r="C276" s="9"/>
-      <c r="D276" s="30"/>
+      <c r="D276" s="26"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" s="135"/>
-      <c r="B277" s="12"/>
+      <c r="A277" s="133"/>
+      <c r="B277" s="17"/>
       <c r="C277" s="9"/>
-      <c r="D277" s="26"/>
+      <c r="D277" s="30"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" s="133"/>
-      <c r="B278" s="17"/>
+      <c r="A278" s="135"/>
+      <c r="B278" s="12"/>
       <c r="C278" s="9"/>
-      <c r="D278" s="30"/>
+      <c r="D278" s="26"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="133"/>
@@ -4186,46 +4208,46 @@
       <c r="D280" s="30"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="134"/>
+      <c r="A281" s="133"/>
       <c r="B281" s="17"/>
       <c r="C281" s="9"/>
       <c r="D281" s="30"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" s="133"/>
+      <c r="A282" s="134"/>
       <c r="B282" s="17"/>
       <c r="C282" s="9"/>
       <c r="D282" s="30"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" s="136"/>
-      <c r="B283" s="15"/>
-      <c r="C283" s="14"/>
-      <c r="D283" s="11"/>
+      <c r="A283" s="133"/>
+      <c r="B283" s="17"/>
+      <c r="C283" s="9"/>
+      <c r="D283" s="30"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" s="133"/>
-      <c r="B284" s="13"/>
-      <c r="C284" s="9"/>
-      <c r="D284" s="30"/>
+      <c r="A284" s="136"/>
+      <c r="B284" s="15"/>
+      <c r="C284" s="14"/>
+      <c r="D284" s="11"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" s="136"/>
-      <c r="B285" s="15"/>
-      <c r="C285" s="14"/>
-      <c r="D285" s="11"/>
+      <c r="A285" s="133"/>
+      <c r="B285" s="13"/>
+      <c r="C285" s="9"/>
+      <c r="D285" s="30"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" s="133"/>
-      <c r="B286" s="13"/>
-      <c r="C286" s="9"/>
-      <c r="D286" s="39"/>
+      <c r="A286" s="136"/>
+      <c r="B286" s="15"/>
+      <c r="C286" s="14"/>
+      <c r="D286" s="11"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="133"/>
       <c r="B287" s="13"/>
       <c r="C287" s="9"/>
-      <c r="D287" s="30"/>
+      <c r="D287" s="39"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="133"/>
@@ -4234,28 +4256,28 @@
       <c r="D288" s="30"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" s="136"/>
-      <c r="B289" s="15"/>
-      <c r="C289" s="14"/>
-      <c r="D289" s="11"/>
+      <c r="A289" s="133"/>
+      <c r="B289" s="13"/>
+      <c r="C289" s="9"/>
+      <c r="D289" s="30"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" s="133"/>
-      <c r="B290" s="13"/>
-      <c r="C290" s="9"/>
-      <c r="D290" s="30"/>
+      <c r="A290" s="136"/>
+      <c r="B290" s="15"/>
+      <c r="C290" s="14"/>
+      <c r="D290" s="11"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" s="136"/>
-      <c r="B291" s="15"/>
-      <c r="C291" s="14"/>
-      <c r="D291" s="11"/>
+      <c r="A291" s="133"/>
+      <c r="B291" s="13"/>
+      <c r="C291" s="9"/>
+      <c r="D291" s="30"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292" s="135"/>
-      <c r="B292" s="12"/>
-      <c r="C292" s="9"/>
-      <c r="D292" s="26"/>
+      <c r="A292" s="136"/>
+      <c r="B292" s="15"/>
+      <c r="C292" s="14"/>
+      <c r="D292" s="11"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="135"/>
@@ -4264,22 +4286,22 @@
       <c r="D293" s="26"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" s="133"/>
-      <c r="B294" s="13"/>
+      <c r="A294" s="135"/>
+      <c r="B294" s="12"/>
       <c r="C294" s="9"/>
-      <c r="D294" s="30"/>
+      <c r="D294" s="26"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" s="135"/>
-      <c r="B295" s="12"/>
+      <c r="A295" s="133"/>
+      <c r="B295" s="13"/>
       <c r="C295" s="9"/>
-      <c r="D295" s="26"/>
+      <c r="D295" s="30"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" s="133"/>
-      <c r="B296" s="13"/>
+      <c r="A296" s="135"/>
+      <c r="B296" s="12"/>
       <c r="C296" s="9"/>
-      <c r="D296" s="30"/>
+      <c r="D296" s="26"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="133"/>
@@ -4294,28 +4316,28 @@
       <c r="D298" s="30"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" s="135"/>
-      <c r="B299" s="12"/>
+      <c r="A299" s="133"/>
+      <c r="B299" s="13"/>
       <c r="C299" s="9"/>
-      <c r="D299" s="26"/>
+      <c r="D299" s="30"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" s="133"/>
-      <c r="B300" s="13"/>
+      <c r="A300" s="135"/>
+      <c r="B300" s="12"/>
       <c r="C300" s="9"/>
-      <c r="D300" s="30"/>
+      <c r="D300" s="26"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301" s="135"/>
-      <c r="B301" s="12"/>
+      <c r="A301" s="133"/>
+      <c r="B301" s="13"/>
       <c r="C301" s="9"/>
-      <c r="D301" s="37"/>
+      <c r="D301" s="30"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302" s="133"/>
-      <c r="B302" s="13"/>
+      <c r="A302" s="135"/>
+      <c r="B302" s="12"/>
       <c r="C302" s="9"/>
-      <c r="D302" s="36"/>
+      <c r="D302" s="37"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="133"/>
@@ -4324,51 +4346,51 @@
       <c r="D303" s="36"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" s="136"/>
-      <c r="B304" s="15"/>
-      <c r="C304" s="14"/>
-      <c r="D304" s="11"/>
+      <c r="A304" s="133"/>
+      <c r="B304" s="13"/>
+      <c r="C304" s="9"/>
+      <c r="D304" s="36"/>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305" s="129"/>
-      <c r="B305" s="18"/>
-      <c r="C305" s="1"/>
-      <c r="D305" s="27"/>
+      <c r="A305" s="136"/>
+      <c r="B305" s="15"/>
+      <c r="C305" s="14"/>
+      <c r="D305" s="11"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="129"/>
       <c r="B306" s="18"/>
-      <c r="C306" s="9"/>
-      <c r="D306" s="28"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="27"/>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="129"/>
       <c r="B307" s="18"/>
-      <c r="C307" s="4"/>
+      <c r="C307" s="9"/>
       <c r="D307" s="28"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="129"/>
       <c r="B308" s="18"/>
       <c r="C308" s="4"/>
-      <c r="D308" s="26"/>
+      <c r="D308" s="28"/>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="129"/>
       <c r="B309" s="18"/>
-      <c r="C309" s="1"/>
-      <c r="D309" s="27"/>
+      <c r="C309" s="4"/>
+      <c r="D309" s="26"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="129"/>
       <c r="B310" s="18"/>
-      <c r="C310" s="9"/>
-      <c r="D310" s="28"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="27"/>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="129"/>
       <c r="B311" s="18"/>
-      <c r="C311" s="4"/>
+      <c r="C311" s="9"/>
       <c r="D311" s="28"/>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -4386,31 +4408,31 @@
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="129"/>
       <c r="B314" s="18"/>
-      <c r="C314" s="1"/>
-      <c r="D314" s="27"/>
+      <c r="C314" s="4"/>
+      <c r="D314" s="28"/>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="129"/>
       <c r="B315" s="18"/>
-      <c r="C315" s="4"/>
-      <c r="D315" s="30"/>
+      <c r="C315" s="1"/>
+      <c r="D315" s="27"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="129"/>
-      <c r="B316" s="19"/>
-      <c r="C316" s="1"/>
-      <c r="D316" s="29"/>
+      <c r="B316" s="18"/>
+      <c r="C316" s="4"/>
+      <c r="D316" s="30"/>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="129"/>
       <c r="B317" s="19"/>
-      <c r="C317" s="9"/>
-      <c r="D317" s="28"/>
+      <c r="C317" s="1"/>
+      <c r="D317" s="29"/>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="129"/>
       <c r="B318" s="19"/>
-      <c r="C318" s="6"/>
+      <c r="C318" s="9"/>
       <c r="D318" s="28"/>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -4422,19 +4444,19 @@
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="129"/>
       <c r="B320" s="19"/>
-      <c r="C320" s="1"/>
-      <c r="D320" s="29"/>
+      <c r="C320" s="6"/>
+      <c r="D320" s="28"/>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="129"/>
       <c r="B321" s="19"/>
-      <c r="C321" s="9"/>
-      <c r="D321" s="28"/>
+      <c r="C321" s="1"/>
+      <c r="D321" s="29"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="129"/>
       <c r="B322" s="19"/>
-      <c r="C322" s="6"/>
+      <c r="C322" s="9"/>
       <c r="D322" s="28"/>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -4445,20 +4467,20 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="129"/>
-      <c r="B324" s="18"/>
-      <c r="C324" s="1"/>
-      <c r="D324" s="27"/>
+      <c r="B324" s="19"/>
+      <c r="C324" s="6"/>
+      <c r="D324" s="28"/>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="129"/>
       <c r="B325" s="18"/>
-      <c r="C325" s="9"/>
-      <c r="D325" s="28"/>
+      <c r="C325" s="1"/>
+      <c r="D325" s="27"/>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="129"/>
       <c r="B326" s="18"/>
-      <c r="C326" s="4"/>
+      <c r="C326" s="9"/>
       <c r="D326" s="28"/>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -4469,20 +4491,20 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="129"/>
-      <c r="B328" s="19"/>
-      <c r="C328" s="1"/>
-      <c r="D328" s="29"/>
+      <c r="B328" s="18"/>
+      <c r="C328" s="4"/>
+      <c r="D328" s="28"/>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="129"/>
       <c r="B329" s="19"/>
-      <c r="C329" s="9"/>
-      <c r="D329" s="28"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="29"/>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="129"/>
       <c r="B330" s="19"/>
-      <c r="C330" s="6"/>
+      <c r="C330" s="9"/>
       <c r="D330" s="28"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -4492,34 +4514,34 @@
       <c r="D331" s="28"/>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332" s="135"/>
-      <c r="B332" s="12"/>
-      <c r="C332" s="3"/>
+      <c r="A332" s="129"/>
+      <c r="B332" s="19"/>
+      <c r="C332" s="6"/>
       <c r="D332" s="28"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="135"/>
       <c r="B333" s="12"/>
-      <c r="C333" s="1"/>
-      <c r="D333" s="26"/>
+      <c r="C333" s="3"/>
+      <c r="D333" s="28"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="135"/>
       <c r="B334" s="12"/>
-      <c r="C334" s="3"/>
-      <c r="D334" s="28"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="26"/>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="135"/>
       <c r="B335" s="12"/>
-      <c r="C335" s="1"/>
-      <c r="D335" s="26"/>
+      <c r="C335" s="3"/>
+      <c r="D335" s="28"/>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="135"/>
       <c r="B336" s="12"/>
-      <c r="C336" s="3"/>
-      <c r="D336" s="28"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="26"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="135"/>
@@ -4534,21 +4556,21 @@
       <c r="D338" s="28"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="129"/>
-      <c r="B339" s="19"/>
-      <c r="C339" s="20"/>
+      <c r="A339" s="135"/>
+      <c r="B339" s="12"/>
+      <c r="C339" s="3"/>
       <c r="D339" s="28"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="129"/>
       <c r="B340" s="19"/>
-      <c r="C340" s="9"/>
+      <c r="C340" s="20"/>
       <c r="D340" s="28"/>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="129"/>
       <c r="B341" s="19"/>
-      <c r="C341" s="3"/>
+      <c r="C341" s="9"/>
       <c r="D341" s="28"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -4559,27 +4581,27 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="129"/>
-      <c r="B343" s="18"/>
+      <c r="B343" s="19"/>
       <c r="C343" s="3"/>
       <c r="D343" s="28"/>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" s="133"/>
-      <c r="B344" s="17"/>
-      <c r="C344" s="9"/>
-      <c r="D344" s="30"/>
+      <c r="A344" s="129"/>
+      <c r="B344" s="18"/>
+      <c r="C344" s="3"/>
+      <c r="D344" s="28"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="134"/>
+      <c r="A345" s="133"/>
       <c r="B345" s="17"/>
       <c r="C345" s="9"/>
       <c r="D345" s="30"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="135"/>
-      <c r="B346" s="12"/>
+      <c r="A346" s="134"/>
+      <c r="B346" s="17"/>
       <c r="C346" s="9"/>
-      <c r="D346" s="26"/>
+      <c r="D346" s="30"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="135"/>
@@ -4588,46 +4610,46 @@
       <c r="D347" s="26"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="133"/>
-      <c r="B348" s="17"/>
+      <c r="A348" s="135"/>
+      <c r="B348" s="12"/>
       <c r="C348" s="9"/>
-      <c r="D348" s="30"/>
+      <c r="D348" s="26"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="134"/>
+      <c r="A349" s="133"/>
       <c r="B349" s="17"/>
       <c r="C349" s="9"/>
       <c r="D349" s="30"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" s="133"/>
+      <c r="A350" s="134"/>
       <c r="B350" s="17"/>
       <c r="C350" s="9"/>
       <c r="D350" s="30"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" s="134"/>
+      <c r="A351" s="133"/>
       <c r="B351" s="17"/>
       <c r="C351" s="9"/>
       <c r="D351" s="30"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" s="133"/>
+      <c r="A352" s="134"/>
       <c r="B352" s="17"/>
       <c r="C352" s="9"/>
       <c r="D352" s="30"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" s="136"/>
-      <c r="B353" s="15"/>
-      <c r="C353" s="14"/>
-      <c r="D353" s="11"/>
+      <c r="A353" s="133"/>
+      <c r="B353" s="17"/>
+      <c r="C353" s="9"/>
+      <c r="D353" s="30"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354" s="133"/>
-      <c r="B354" s="13"/>
-      <c r="C354" s="9"/>
-      <c r="D354" s="30"/>
+      <c r="A354" s="136"/>
+      <c r="B354" s="15"/>
+      <c r="C354" s="14"/>
+      <c r="D354" s="11"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="133"/>
@@ -4636,16 +4658,16 @@
       <c r="D355" s="30"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356" s="136"/>
-      <c r="B356" s="15"/>
-      <c r="C356" s="14"/>
-      <c r="D356" s="11"/>
+      <c r="A356" s="133"/>
+      <c r="B356" s="13"/>
+      <c r="C356" s="9"/>
+      <c r="D356" s="30"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A357" s="133"/>
-      <c r="B357" s="13"/>
-      <c r="C357" s="9"/>
-      <c r="D357" s="30"/>
+      <c r="A357" s="136"/>
+      <c r="B357" s="15"/>
+      <c r="C357" s="14"/>
+      <c r="D357" s="11"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="133"/>
@@ -4678,16 +4700,16 @@
       <c r="D362" s="30"/>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A363" s="136"/>
-      <c r="B363" s="15"/>
-      <c r="C363" s="14"/>
-      <c r="D363" s="11"/>
+      <c r="A363" s="133"/>
+      <c r="B363" s="13"/>
+      <c r="C363" s="9"/>
+      <c r="D363" s="30"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A364" s="133"/>
-      <c r="B364" s="13"/>
-      <c r="C364" s="9"/>
-      <c r="D364" s="30"/>
+      <c r="A364" s="136"/>
+      <c r="B364" s="15"/>
+      <c r="C364" s="14"/>
+      <c r="D364" s="11"/>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="133"/>
@@ -4696,16 +4718,16 @@
       <c r="D365" s="30"/>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366" s="136"/>
-      <c r="B366" s="15"/>
-      <c r="C366" s="14"/>
-      <c r="D366" s="11"/>
+      <c r="A366" s="133"/>
+      <c r="B366" s="13"/>
+      <c r="C366" s="9"/>
+      <c r="D366" s="30"/>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A367" s="135"/>
-      <c r="B367" s="12"/>
-      <c r="C367" s="9"/>
-      <c r="D367" s="26"/>
+      <c r="A367" s="136"/>
+      <c r="B367" s="15"/>
+      <c r="C367" s="14"/>
+      <c r="D367" s="11"/>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="135"/>
@@ -4714,10 +4736,10 @@
       <c r="D368" s="26"/>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A369" s="133"/>
-      <c r="B369" s="13"/>
+      <c r="A369" s="135"/>
+      <c r="B369" s="12"/>
       <c r="C369" s="9"/>
-      <c r="D369" s="30"/>
+      <c r="D369" s="26"/>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="133"/>
@@ -4726,16 +4748,16 @@
       <c r="D370" s="30"/>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A371" s="135"/>
-      <c r="B371" s="12"/>
+      <c r="A371" s="133"/>
+      <c r="B371" s="13"/>
       <c r="C371" s="9"/>
-      <c r="D371" s="26"/>
+      <c r="D371" s="30"/>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A372" s="133"/>
-      <c r="B372" s="13"/>
+      <c r="A372" s="135"/>
+      <c r="B372" s="12"/>
       <c r="C372" s="9"/>
-      <c r="D372" s="30"/>
+      <c r="D372" s="26"/>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="133"/>
@@ -4756,34 +4778,34 @@
       <c r="D375" s="30"/>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A376" s="136"/>
-      <c r="B376" s="15"/>
-      <c r="C376" s="14"/>
-      <c r="D376" s="11"/>
+      <c r="A376" s="133"/>
+      <c r="B376" s="13"/>
+      <c r="C376" s="9"/>
+      <c r="D376" s="30"/>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A377" s="133"/>
-      <c r="B377" s="17"/>
-      <c r="C377" s="9"/>
-      <c r="D377" s="30"/>
+      <c r="A377" s="136"/>
+      <c r="B377" s="15"/>
+      <c r="C377" s="14"/>
+      <c r="D377" s="11"/>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A378" s="134"/>
+      <c r="A378" s="133"/>
       <c r="B378" s="17"/>
       <c r="C378" s="9"/>
       <c r="D378" s="30"/>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A379" s="136"/>
-      <c r="B379" s="15"/>
-      <c r="C379" s="14"/>
-      <c r="D379" s="11"/>
+      <c r="A379" s="134"/>
+      <c r="B379" s="17"/>
+      <c r="C379" s="9"/>
+      <c r="D379" s="30"/>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A380" s="135"/>
-      <c r="B380" s="12"/>
-      <c r="C380" s="9"/>
-      <c r="D380" s="26"/>
+      <c r="A380" s="136"/>
+      <c r="B380" s="15"/>
+      <c r="C380" s="14"/>
+      <c r="D380" s="11"/>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="135"/>
@@ -4792,16 +4814,22 @@
       <c r="D381" s="26"/>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A382" s="136"/>
-      <c r="B382" s="15"/>
-      <c r="C382" s="14"/>
-      <c r="D382" s="11"/>
+      <c r="A382" s="135"/>
+      <c r="B382" s="12"/>
+      <c r="C382" s="9"/>
+      <c r="D382" s="26"/>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="136"/>
       <c r="B383" s="15"/>
       <c r="C383" s="14"/>
       <c r="D383" s="11"/>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="136"/>
+      <c r="B384" s="15"/>
+      <c r="C384" s="14"/>
+      <c r="D384" s="11"/>
     </row>
   </sheetData>
   <sortState ref="A2:G75">
@@ -4815,8 +4843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L304"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A61" sqref="A1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7216,7 +7244,7 @@
   <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8234,7 +8262,7 @@
   <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9297,8 +9325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
